--- a/biology/Botanique/Bois_des_Mornards/Bois_des_Mornards.xlsx
+++ b/biology/Botanique/Bois_des_Mornards/Bois_des_Mornards.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Bois des Mornards, situé sur la commune de Ciré-d'Aunis, s’intègre aux marais de Rochefort. Il est situé sur son secteur Est et est classé en Zone naturelle d'intérêt écologique, faunistique et floristique  (ZNIEFF) de type 1.
@@ -514,7 +526,9 @@
           <t>Intérêt historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XVIIIe siècle, un réseau de fossés et de terrées a été créé pour essayer de valoriser ces terres difficiles d’accès. Des alignements de frênes, et plus tardivement de peupliers, furent plantés. Les frênes étaient étêtés, d’où leur appellation commune « frêne têtard »
 </t>
@@ -545,7 +559,9 @@
           <t>La « nature » dans le boisement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bois des Mornards est remarquable en raison de la présence de nombreux frênes têtards et de surfaces importantes de touradons de grands carex. Insolite paysage du marais rochefortais, il en est le dernier exemple de taille significative (environ 60 ha), alors qu’il est encore commun dans le Marais Poitevin.
 Un inventaire biologique réalisé par la LPO et portant sur un panel de boisements humides du marais de Rochefort a mis en évidence le Bois des Mornards. Avec 190 espèces végétales recensées, ce bois est considéré comme l’un des sites les plus riches du secteur.
@@ -586,7 +602,9 @@
           <t>Acquisition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cadre du programme LIFE  « Marais de Rochefort », le Cren a acquis à l’amiable environ 3 ha de boisements et environ 2 ha sont en promesses de vente à la SAFER.
 </t>
@@ -617,7 +635,9 @@
           <t>Gestion</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un certain nombre de personnes privées maintient une activité traditionnelle de coupe de bois de chauffage. Ce boisement, issu de l’activité humaine, restera entretenu dans las années à venir par l’émondage ou l’étêtage de nouveaux frênes afin de maintenir ce patrimoine culturel et historique. Début 2010, une centaine d’arbres ont été entretenus sur ce principe sur les parcelles acquises avec l’aide financière du LIFE « Marais de Rochefort ».
 La vigilance est de mise afin d'éviter une dérive éventuelle avec la coupe des boisements en été permettant de sortir le bois rapidement mais ne tenant pas compte du cycle biologique des arbres.
